--- a/tut06/output/2001CB17.xlsx
+++ b/tut06/output/2001CB17.xlsx
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -779,7 +779,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
